--- a/Src/test2.xlsx
+++ b/Src/test2.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\qiaom\source\repos\SDWIII\Eagle\Src\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{85F7AD9F-16A5-4006-8715-43893649F394}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BF769DAC-AF88-4EA4-9FC0-A1970A77AFE7}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="3780" yWindow="2184" windowWidth="17280" windowHeight="8964" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,103 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="28">
-  <si>
-    <t>Charm</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>m129</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>m129@qq.com</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>Elliot</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>m579</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>m579@qq.com</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>Ricky</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>m789</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>m789@qq.com</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>Scott</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>m135</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>m135@qq.com</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>Jason</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>l123</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>l123@qq.com</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>Coco</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>l456</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>l456@qq.com</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>Rose</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>l789</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>l789@qq.com</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>Tony</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>l135</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>l135@qq.com</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="52">
   <si>
     <t>name</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -136,6 +40,198 @@
   </si>
   <si>
     <t>GPA (optional)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Chile</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Duran</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Eric</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Fox</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>George</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Hunk</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Ivan</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Jane</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>a123</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>a456</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>a789</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>b123</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>b456</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>b789</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>c123</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>c456</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>a123@qq.com</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>a456@qq.com</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>a789@qq.com</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>b123@qq.com</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>b456@qq.com</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>b789@qq.com</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>c123@qq.com</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>c456@qq.com</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Kevin</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>c789</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>c789@qq.com</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Linbert</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>d123</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>d123@qq.com</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Mark</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>d456</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>d456@qq.com</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Nick</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>d789</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>d789@qq.com</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Olinpic</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>e123</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>e123@qq.com</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Paul</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>e456</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>e456@qq.com</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Quak</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>e789</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>e789@qq.com</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Ruby</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>f123</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>f123@qq.com</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -472,10 +568,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D9"/>
+  <dimension ref="A1:D17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F2" sqref="F2"/>
+      <selection activeCell="G15" sqref="G15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8"/>
@@ -487,44 +583,44 @@
   <sheetData>
     <row r="1" spans="1:4">
       <c r="A1" t="s">
-        <v>24</v>
+        <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>25</v>
+        <v>1</v>
       </c>
       <c r="C1" t="s">
-        <v>26</v>
+        <v>2</v>
       </c>
       <c r="D1" t="s">
-        <v>27</v>
+        <v>3</v>
       </c>
     </row>
     <row r="2" spans="1:4">
       <c r="A2" t="s">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="B2" t="s">
-        <v>1</v>
+        <v>12</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>2</v>
+        <v>20</v>
       </c>
       <c r="D2">
-        <v>4</v>
+        <v>2.4900000000000002</v>
       </c>
     </row>
     <row r="3" spans="1:4">
       <c r="A3" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="B3" t="s">
-        <v>4</v>
+        <v>13</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>5</v>
+        <v>21</v>
       </c>
       <c r="D3">
-        <v>3.97</v>
+        <v>3.3</v>
       </c>
     </row>
     <row r="4" spans="1:4">
@@ -532,83 +628,195 @@
         <v>6</v>
       </c>
       <c r="B4" t="s">
-        <v>7</v>
+        <v>14</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>8</v>
+        <v>22</v>
       </c>
       <c r="D4">
-        <v>3.23</v>
+        <v>3.03</v>
       </c>
     </row>
     <row r="5" spans="1:4">
       <c r="A5" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="B5" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>11</v>
+        <v>23</v>
       </c>
       <c r="D5">
-        <v>3.55</v>
+        <v>3.11</v>
       </c>
     </row>
     <row r="6" spans="1:4">
       <c r="A6" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="B6" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>14</v>
+        <v>24</v>
       </c>
       <c r="D6">
-        <v>2.89</v>
+        <v>2.87</v>
       </c>
     </row>
     <row r="7" spans="1:4">
       <c r="A7" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="B7" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>17</v>
+        <v>25</v>
       </c>
       <c r="D7">
-        <v>2.64</v>
+        <v>2.93</v>
       </c>
     </row>
     <row r="8" spans="1:4">
       <c r="A8" t="s">
+        <v>10</v>
+      </c>
+      <c r="B8" t="s">
         <v>18</v>
       </c>
-      <c r="B8" t="s">
-        <v>19</v>
-      </c>
       <c r="C8" s="1" t="s">
-        <v>20</v>
+        <v>26</v>
       </c>
       <c r="D8">
-        <v>3.31</v>
+        <v>3.53</v>
       </c>
     </row>
     <row r="9" spans="1:4">
       <c r="A9" t="s">
-        <v>21</v>
+        <v>11</v>
       </c>
       <c r="B9" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="D9">
-        <v>3.19</v>
+        <v>3.24</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4">
+      <c r="A10" t="s">
+        <v>28</v>
+      </c>
+      <c r="B10" t="s">
+        <v>29</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="D10">
+        <v>3.42</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4">
+      <c r="A11" t="s">
+        <v>31</v>
+      </c>
+      <c r="B11" t="s">
+        <v>32</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="D11">
+        <v>3.08</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4">
+      <c r="A12" t="s">
+        <v>34</v>
+      </c>
+      <c r="B12" t="s">
+        <v>35</v>
+      </c>
+      <c r="C12" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="D12">
+        <v>2.66</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4">
+      <c r="A13" t="s">
+        <v>37</v>
+      </c>
+      <c r="B13" t="s">
+        <v>38</v>
+      </c>
+      <c r="C13" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="D13">
+        <v>2.75</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4">
+      <c r="A14" t="s">
+        <v>40</v>
+      </c>
+      <c r="B14" t="s">
+        <v>41</v>
+      </c>
+      <c r="C14" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="D14">
+        <v>3.83</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4">
+      <c r="A15" t="s">
+        <v>43</v>
+      </c>
+      <c r="B15" t="s">
+        <v>44</v>
+      </c>
+      <c r="C15" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="D15">
+        <v>3.33</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4">
+      <c r="A16" t="s">
+        <v>46</v>
+      </c>
+      <c r="B16" t="s">
+        <v>47</v>
+      </c>
+      <c r="C16" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="D16">
+        <v>3.63</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4">
+      <c r="A17" t="s">
+        <v>49</v>
+      </c>
+      <c r="B17" t="s">
+        <v>50</v>
+      </c>
+      <c r="C17" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="D17">
+        <v>3.26</v>
       </c>
     </row>
   </sheetData>
@@ -622,8 +830,16 @@
     <hyperlink ref="C7" r:id="rId6" xr:uid="{827450ED-3A5A-411B-B99D-F5E9D4BEC95A}"/>
     <hyperlink ref="C8" r:id="rId7" xr:uid="{B5F53E62-CD45-4A92-B723-670AA7DFFF2E}"/>
     <hyperlink ref="C9" r:id="rId8" xr:uid="{C34142AA-C231-46B4-8DAB-D6323FC19B0E}"/>
+    <hyperlink ref="C10" r:id="rId9" xr:uid="{0EB16072-F981-4741-AEF1-83C5AC80C73C}"/>
+    <hyperlink ref="C11" r:id="rId10" xr:uid="{E6093FD4-D757-49AE-B551-32D9FDF12C3A}"/>
+    <hyperlink ref="C12" r:id="rId11" xr:uid="{2AE7FDAA-29B8-4B23-A285-3C9051380EC4}"/>
+    <hyperlink ref="C13" r:id="rId12" xr:uid="{171C115C-302E-4DAC-BCFB-873E87D4D1AB}"/>
+    <hyperlink ref="C14" r:id="rId13" xr:uid="{4E8E2C96-B2B8-4EF6-9B58-02FB22B7EA38}"/>
+    <hyperlink ref="C15" r:id="rId14" xr:uid="{FB786DBE-8AA7-496A-8C77-E4AE1BD3BEFC}"/>
+    <hyperlink ref="C16" r:id="rId15" xr:uid="{3C889B75-AF6A-4512-AF4D-8C6DE17034E5}"/>
+    <hyperlink ref="C17" r:id="rId16" xr:uid="{8D4B1101-1878-486E-BBC8-3ECAEF397D59}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId9"/>
+  <pageSetup orientation="portrait" r:id="rId17"/>
 </worksheet>
 </file>